--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_en_Arménie/Pandémie_de_Covid-19_en_Arménie.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_en_Arménie/Pandémie_de_Covid-19_en_Arménie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Arm%C3%A9nie</t>
+          <t>Pandémie_de_Covid-19_en_Arménie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 en Arménie démarre officiellement le 1er mars 2020. À la date du 5 novembre 2022, le bilan est de 8 709 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Arm%C3%A9nie</t>
+          <t>Pandémie_de_Covid-19_en_Arménie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier cas de contamination en Arménie est détecté le 1er mars 2020 ; il s'agit d'un voyageur en provenance d'Iran[3].
-Le 16 mars, le gouvernement arménien décrète l'état d'urgence pour freiner la propagation du virus[4]. Les mesures d'urgence comprennent la fermeture des établissements scolaires, la fermeture des frontières avec la Géorgie et l'Iran, l'interdiction des rassemblements de plus de vingt personnes et le report du référendum constitutionnel prévu le 5 avril[5].
-L'Arménie enregistre son premier décès le 26 mars 2020 : un homme de 72 ans, hospitalisé à l'hôpital clinique des maladies infectieuses de Nork à Erevan[6].
-Le 2 avril, Courrier international indique qu'avec 663 cas déclarés de Covid-19 et quatre morts, l'Arménie est cinq fois plus touchée par la pandémie que la Géorgie, pays voisin[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas de contamination en Arménie est détecté le 1er mars 2020 ; il s'agit d'un voyageur en provenance d'Iran.
+Le 16 mars, le gouvernement arménien décrète l'état d'urgence pour freiner la propagation du virus. Les mesures d'urgence comprennent la fermeture des établissements scolaires, la fermeture des frontières avec la Géorgie et l'Iran, l'interdiction des rassemblements de plus de vingt personnes et le report du référendum constitutionnel prévu le 5 avril.
+L'Arménie enregistre son premier décès le 26 mars 2020 : un homme de 72 ans, hospitalisé à l'hôpital clinique des maladies infectieuses de Nork à Erevan.
+Le 2 avril, Courrier international indique qu'avec 663 cas déclarés de Covid-19 et quatre morts, l'Arménie est cinq fois plus touchée par la pandémie que la Géorgie, pays voisin.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Arm%C3%A9nie</t>
+          <t>Pandémie_de_Covid-19_en_Arménie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
